--- a/biology/Histoire de la zoologie et de la botanique/Stazione_zoologica_Anton_Dohrn/Stazione_zoologica_Anton_Dohrn.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Stazione_zoologica_Anton_Dohrn/Stazione_zoologica_Anton_Dohrn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Stazione zoologica Anton Dohrn est un institut de recherche en biologie marine situé dans la ville de Naples. Cet institut à l'origine privé a été fondé en 1872 par le zoologiste allemand Anton Dohrn. C'est depuis 1982 un institut national dépendant du Ministero dell'Università e della Ricerca du gouvernement italien. Il comprend également un aquarium, le plus ancien d'Italie (et le deuxième plus ancien d'Europe, le premier parmi ceux qui existent encore).
@@ -512,7 +524,9 @@
           <t>Création</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le choix de la ville de Naples n'est pas fait au hasard. Cette ville attire de nombreux touristes, aussi Dohrn a l'idée de créer, en parallèle à la station, un aquarium payant, les recettes contribuant au financement de l'institution.
 Dohrn convainc les autorités de lui donner une parcelle de terrain au bord de la mer en s’engageant à construire à ses frais les bâtiments de la Station biologique. Celle-ci ouvre ses portes aux scientifiques en septembre 1873 et au grand public en janvier 1874.
@@ -545,7 +559,9 @@
           <t>Vocation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'institut est consacré à la recherche fondamentale en biologie. La recherche est largement interdisciplinaire, impliquant les domaines de l'évolution, biochimie, biologie moléculaire, la neurobiologie, la biologie cellulaire, océanographie biologique marine botanique, biologie moléculaire des plantes, l'écologie benthique, et l'écophysiologie. Il est également fermement attaché à une politique de promotion de la coopération internationale dans la recherche scientifique et la coopération avec d'autres institutions italiennes.
 </t>
@@ -576,7 +592,9 @@
           <t>Chercheurs célèbres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Otto Heinrich Warburg (1883-1970), biochimiste allemand, sur la consommation d'oxygène des œufs d'oursins et la respiration cellulaire.
 Chris Bowler (1965-), biologiste britannique, spécialiste de la génomique des plantes.</t>
